--- a/biology/Botanique/Aethephyllum/Aethephyllum.xlsx
+++ b/biology/Botanique/Aethephyllum/Aethephyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aethephyllum N.E.Br. est un genre de plante dicotylédone de la famille des Aizoaceae, originaire d'Afrique australe.
 Le terme Aethephyllum signifie « à feuille inhabituelle » et se réfère aux feuilles polylobées de ce genre, qui contrastent avec les feuilles à marges régulières habituellement rencontrées chez les Aizoaceae.
@@ -512,7 +524,9 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aethephyllum N.E.Br., in Möller's Deutsche Gärtn.-Zeitung 43: 400 (1928)
 Type : Aethephyllum pinnatifidum (L.f.) N.E.Br (Mesembryanthemum pinnatifidum L.f.)
@@ -544,7 +558,9 @@
           <t>Caractères généraux [1],[2],[3]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les membres du genre Aethephyllum sont des plantes herbacées annuelles rampantes.
 Phyllotaxie : opposée-décussée ; entrenœuds bien développés.
@@ -552,7 +568,7 @@
 Feuilles : peu succulentes, plates avec un léger dièdre à la nervure médiane ; épiderme fortement papilleux ; marges profondément et irrégulièrement sinuées.
 Fleurs : solitaires ; petite taille ; pédoncule allongé, démunis de bractées ; sépales inégaux ; pétaloïdes en deux ou trois cycles, jaune vif ; étamines peu nombreuses (comparativement aux autres Aizoaceae) en cycle unique ; gynécée pentamère, stigmates(5) filiformes.
 Fruit : capsule à dessus plat ; valves ailées terminées par une membrane apicale ; loges très partiellement couvertes, sans tubercules ; graines rugueuses.
-Période de floraison : du cœur de l'hiver au début du printemps ; les fleurs s'ouvrent en milieu d'après-midi et sembles auto-fertiles et éventuellement cleistogames[1].</t>
+Période de floraison : du cœur de l'hiver au début du printemps ; les fleurs s'ouvrent en milieu d'après-midi et sembles auto-fertiles et éventuellement cleistogames.</t>
         </is>
       </c>
     </row>
@@ -580,10 +596,12 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Typologie : thérophyte ; xérophyte (modérément).
-Habitat : sols sableux du fynbos ; plantes pionnières à vie brève après les incendies[2].
+Habitat : sols sableux du fynbos ; plantes pionnières à vie brève après les incendies.
 Altitude : ?</t>
         </is>
       </c>
@@ -612,11 +630,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Aire réduite :
  Afrique du Sud
-Western Cape (SW)[2]:
+Western Cape (SW):
 Giftberg près de Vanrhynsdorp
 Cedarberg
 environs de Tulbagh
@@ -649,7 +669,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Aethephyllum est, à ce jour, un genre monotype.
 Aethephyllum pinnatifidum N.E.Br.</t>
@@ -680,10 +702,12 @@
           <t>Mise en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre Aethephyllum étant annuelles et fugaces sont très peu cultivées.
-Plantes à semer de préférence en hiver pour une floraison au printemps[3].
+Plantes à semer de préférence en hiver pour une floraison au printemps.
 </t>
         </is>
       </c>
